--- a/src/assets/templates/Sample_format_BillerBulk_Para3.xlsx
+++ b/src/assets/templates/Sample_format_BillerBulk_Para3.xlsx
@@ -971,7 +971,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
